--- a/biology/Histoire de la zoologie et de la botanique/Hilaire_Ricome/Hilaire_Ricome.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hilaire_Ricome/Hilaire_Ricome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hilaire Paulin Alexandre Ricome, né le 2 janvier 1867 à Montpellier[1] et mort le 28 décembre 1926 à Poitiers[2], est un universitaire et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hilaire Paulin Alexandre Ricome, né le 2 janvier 1867 à Montpellier et mort le 28 décembre 1926 à Poitiers, est un universitaire et botaniste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrégé de sciences naturelles (1895)[3], docteur en botanique de la Sorbonne, il est préparateur à la Sorbonne, et par la suite professeur aux facultés de Lille puis de Poitiers.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrégé de sciences naturelles (1895), docteur en botanique de la Sorbonne, il est préparateur à la Sorbonne, et par la suite professeur aux facultés de Lille puis de Poitiers.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thèse présentée à la Faculté des sciences de Paris, pour obtenir le grade de docteur ès sciences naturelles : Recherches expérimentales sur la symétrie des rameaux floraux, Hilaire Ricome, Éditeur Masson, 1899
 Les Modes de croissance géotropique des végétaux, 1927.</t>
